--- a/INTLINE/data/134/DEUSTATIS/old/National accounts - Growth contributions to price-adjusted GDP quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/National accounts - Growth contributions to price-adjusted GDP quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="72">
   <si>
     <t>National accounts - Growth contributions to price-adjusted
 GDP: Germany, quarters, original and adjusted data, use
@@ -148,9 +148,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>VGR-VWA-011</t>
   </si>
   <si>
@@ -232,7 +229,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:52:16</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:21:17</t>
   </si>
 </sst>
 </file>
@@ -3865,21 +3862,21 @@
         <v>-4.1</v>
       </c>
       <c r="DT8" t="n" s="10">
-        <v>7.1</v>
+        <v>7.0</v>
       </c>
       <c r="DU8" t="n" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="DV8" t="s" s="10">
-        <v>44</v>
+        <v>3.1</v>
+      </c>
+      <c r="DV8" t="n" s="10">
+        <v>2.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s" s="13">
         <v>45</v>
-      </c>
-      <c r="B9" t="s" s="13">
-        <v>46</v>
       </c>
       <c r="C9" t="s" s="10">
         <v>43</v>
@@ -4245,21 +4242,21 @@
         <v>-4.2</v>
       </c>
       <c r="DT9" t="n" s="10">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="DU9" t="n" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="DV9" t="s" s="10">
-        <v>44</v>
+        <v>1.1</v>
+      </c>
+      <c r="DV9" t="n" s="10">
+        <v>1.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s" s="13">
         <v>47</v>
-      </c>
-      <c r="B10" t="s" s="13">
-        <v>48</v>
       </c>
       <c r="C10" t="s" s="10">
         <v>43</v>
@@ -4628,18 +4625,18 @@
         <v>3.3</v>
       </c>
       <c r="DU10" t="n" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="DV10" t="s" s="10">
-        <v>44</v>
+        <v>0.7</v>
+      </c>
+      <c r="DV10" t="n" s="10">
+        <v>1.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s" s="13">
         <v>49</v>
-      </c>
-      <c r="B11" t="s" s="13">
-        <v>50</v>
       </c>
       <c r="C11" t="s" s="10">
         <v>43</v>
@@ -5005,21 +5002,21 @@
         <v>0.5</v>
       </c>
       <c r="DT11" t="n" s="10">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="DU11" t="n" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="DV11" t="s" s="10">
-        <v>44</v>
+        <v>0.4</v>
+      </c>
+      <c r="DV11" t="n" s="10">
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s" s="13">
         <v>51</v>
-      </c>
-      <c r="B12" t="s" s="13">
-        <v>52</v>
       </c>
       <c r="C12" t="s" s="10">
         <v>43</v>
@@ -5385,21 +5382,21 @@
         <v>0.1</v>
       </c>
       <c r="DT12" t="n" s="10">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="DU12" t="n" s="10">
-        <v>2.2</v>
-      </c>
-      <c r="DV12" t="s" s="10">
-        <v>44</v>
+        <v>2.0</v>
+      </c>
+      <c r="DV12" t="n" s="10">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="9">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s" s="13">
         <v>53</v>
-      </c>
-      <c r="B13" t="s" s="13">
-        <v>54</v>
       </c>
       <c r="C13" t="s" s="10">
         <v>43</v>
@@ -5768,18 +5765,18 @@
         <v>2.0</v>
       </c>
       <c r="DU13" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="DV13" t="s" s="10">
-        <v>44</v>
+        <v>0.0</v>
+      </c>
+      <c r="DV13" t="n" s="10">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="9">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s" s="13">
         <v>55</v>
-      </c>
-      <c r="B14" t="s" s="13">
-        <v>56</v>
       </c>
       <c r="C14" t="s" s="10">
         <v>43</v>
@@ -6150,16 +6147,16 @@
       <c r="DU14" t="n" s="10">
         <v>-0.1</v>
       </c>
-      <c r="DV14" t="s" s="10">
-        <v>44</v>
+      <c r="DV14" t="n" s="10">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s" s="13">
         <v>57</v>
-      </c>
-      <c r="B15" t="s" s="13">
-        <v>58</v>
       </c>
       <c r="C15" t="s" s="10">
         <v>43</v>
@@ -6528,18 +6525,18 @@
         <v>0.6</v>
       </c>
       <c r="DU15" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="DV15" t="s" s="10">
-        <v>44</v>
+        <v>0.1</v>
+      </c>
+      <c r="DV15" t="n" s="10">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s" s="13">
         <v>59</v>
-      </c>
-      <c r="B16" t="s" s="13">
-        <v>60</v>
       </c>
       <c r="C16" t="s" s="10">
         <v>43</v>
@@ -6910,16 +6907,16 @@
       <c r="DU16" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="DV16" t="s" s="10">
-        <v>44</v>
+      <c r="DV16" t="n" s="10">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s" s="13">
         <v>61</v>
-      </c>
-      <c r="B17" t="s" s="13">
-        <v>62</v>
       </c>
       <c r="C17" t="s" s="10">
         <v>43</v>
@@ -7285,21 +7282,21 @@
         <v>0.3</v>
       </c>
       <c r="DT17" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="DU17" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="DV17" t="s" s="10">
-        <v>44</v>
+        <v>1.9</v>
+      </c>
+      <c r="DV17" t="n" s="10">
+        <v>1.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="9">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s" s="13">
         <v>63</v>
-      </c>
-      <c r="B18" t="s" s="13">
-        <v>64</v>
       </c>
       <c r="C18" t="s" s="10">
         <v>43</v>
@@ -7662,24 +7659,24 @@
         <v>1.2</v>
       </c>
       <c r="DS18" t="n" s="10">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="DT18" t="n" s="10">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="DU18" t="n" s="10">
-        <v>-0.9</v>
-      </c>
-      <c r="DV18" t="s" s="10">
-        <v>44</v>
+        <v>-0.3</v>
+      </c>
+      <c r="DV18" t="n" s="10">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s" s="13">
         <v>65</v>
-      </c>
-      <c r="B19" t="s" s="13">
-        <v>66</v>
       </c>
       <c r="C19" t="s" s="10">
         <v>43</v>
@@ -8042,24 +8039,24 @@
         <v>-1.5</v>
       </c>
       <c r="DS19" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="DT19" t="n" s="10">
-        <v>10.7</v>
+        <v>11.2</v>
       </c>
       <c r="DU19" t="n" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="DV19" t="s" s="10">
-        <v>44</v>
+        <v>3.2</v>
+      </c>
+      <c r="DV19" t="n" s="10">
+        <v>3.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s" s="13">
         <v>67</v>
-      </c>
-      <c r="B20" t="s" s="13">
-        <v>68</v>
       </c>
       <c r="C20" t="s" s="10">
         <v>43</v>
@@ -8428,15 +8425,15 @@
         <v>-7.4</v>
       </c>
       <c r="DU20" t="n" s="10">
-        <v>-3.3</v>
-      </c>
-      <c r="DV20" t="s" s="10">
-        <v>44</v>
+        <v>-3.5</v>
+      </c>
+      <c r="DV20" t="n" s="10">
+        <v>-4.6</v>
       </c>
     </row>
     <row r="21" ht="33.75" customHeight="true">
       <c r="A21" t="s" s="14">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -8813,18 +8810,18 @@
         <v>2.6</v>
       </c>
       <c r="DU22" t="n" s="10">
-        <v>1.9</v>
-      </c>
-      <c r="DV22" t="s" s="10">
-        <v>44</v>
+        <v>1.6</v>
+      </c>
+      <c r="DV22" t="n" s="10">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s" s="13">
         <v>45</v>
-      </c>
-      <c r="B23" t="s" s="13">
-        <v>46</v>
       </c>
       <c r="C23" t="s" s="10">
         <v>43</v>
@@ -9187,24 +9184,24 @@
         <v>-1.2</v>
       </c>
       <c r="DS23" t="n" s="10">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="DT23" t="n" s="10">
         <v>2.9</v>
       </c>
       <c r="DU23" t="n" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="DV23" t="s" s="10">
-        <v>44</v>
+        <v>2.3</v>
+      </c>
+      <c r="DV23" t="n" s="10">
+        <v>-0.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s" s="13">
         <v>47</v>
-      </c>
-      <c r="B24" t="s" s="13">
-        <v>48</v>
       </c>
       <c r="C24" t="s" s="10">
         <v>43</v>
@@ -9573,18 +9570,18 @@
         <v>1.8</v>
       </c>
       <c r="DU24" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="DV24" t="s" s="10">
-        <v>44</v>
+        <v>2.9</v>
+      </c>
+      <c r="DV24" t="n" s="10">
+        <v>-0.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="9">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s" s="13">
         <v>49</v>
-      </c>
-      <c r="B25" t="s" s="13">
-        <v>50</v>
       </c>
       <c r="C25" t="s" s="10">
         <v>43</v>
@@ -9947,24 +9944,24 @@
         <v>0.2</v>
       </c>
       <c r="DS25" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="DT25" t="n" s="10">
-        <v>1.0</v>
+        <v>1.2</v>
       </c>
       <c r="DU25" t="n" s="10">
-        <v>-0.5</v>
-      </c>
-      <c r="DV25" t="s" s="10">
-        <v>44</v>
+        <v>-0.7</v>
+      </c>
+      <c r="DV25" t="n" s="10">
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="9">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s" s="13">
         <v>51</v>
-      </c>
-      <c r="B26" t="s" s="13">
-        <v>52</v>
       </c>
       <c r="C26" t="s" s="10">
         <v>43</v>
@@ -10327,24 +10324,24 @@
         <v>1.0</v>
       </c>
       <c r="DS26" t="n" s="10">
-        <v>1.9</v>
+        <v>2.0</v>
       </c>
       <c r="DT26" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="DU26" t="n" s="10">
-        <v>-0.6</v>
-      </c>
-      <c r="DV26" t="s" s="10">
-        <v>44</v>
+        <v>-0.7</v>
+      </c>
+      <c r="DV26" t="n" s="10">
+        <v>0.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="9">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s" s="13">
         <v>53</v>
-      </c>
-      <c r="B27" t="s" s="13">
-        <v>54</v>
       </c>
       <c r="C27" t="s" s="10">
         <v>43</v>
@@ -10713,18 +10710,18 @@
         <v>0.3</v>
       </c>
       <c r="DU27" t="n" s="10">
-        <v>-0.5</v>
-      </c>
-      <c r="DV27" t="s" s="10">
-        <v>44</v>
+        <v>-0.6</v>
+      </c>
+      <c r="DV27" t="n" s="10">
+        <v>0.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="9">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s" s="13">
         <v>55</v>
-      </c>
-      <c r="B28" t="s" s="13">
-        <v>56</v>
       </c>
       <c r="C28" t="s" s="10">
         <v>43</v>
@@ -11093,18 +11090,18 @@
         <v>0.0</v>
       </c>
       <c r="DU28" t="n" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="DV28" t="s" s="10">
-        <v>44</v>
+        <v>-0.3</v>
+      </c>
+      <c r="DV28" t="n" s="10">
+        <v>0.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s" s="13">
         <v>57</v>
-      </c>
-      <c r="B29" t="s" s="13">
-        <v>58</v>
       </c>
       <c r="C29" t="s" s="10">
         <v>43</v>
@@ -11473,18 +11470,18 @@
         <v>0.2</v>
       </c>
       <c r="DU29" t="n" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="DV29" t="s" s="10">
-        <v>44</v>
+        <v>-0.4</v>
+      </c>
+      <c r="DV29" t="n" s="10">
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s" s="13">
         <v>59</v>
-      </c>
-      <c r="B30" t="s" s="13">
-        <v>60</v>
       </c>
       <c r="C30" t="s" s="10">
         <v>43</v>
@@ -11855,16 +11852,16 @@
       <c r="DU30" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="DV30" t="s" s="10">
-        <v>44</v>
+      <c r="DV30" t="n" s="10">
+        <v>0.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s" s="13">
         <v>61</v>
-      </c>
-      <c r="B31" t="s" s="13">
-        <v>62</v>
       </c>
       <c r="C31" t="s" s="10">
         <v>43</v>
@@ -12230,21 +12227,21 @@
         <v>2.1</v>
       </c>
       <c r="DT31" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="DU31" t="n" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="DV31" t="s" s="10">
-        <v>44</v>
+        <v>0.0</v>
+      </c>
+      <c r="DV31" t="n" s="10">
+        <v>0.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="9">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s" s="13">
         <v>63</v>
-      </c>
-      <c r="B32" t="s" s="13">
-        <v>64</v>
       </c>
       <c r="C32" t="s" s="10">
         <v>43</v>
@@ -12607,24 +12604,24 @@
         <v>1.0</v>
       </c>
       <c r="DS32" t="n" s="10">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="DT32" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="DU32" t="n" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="DV32" t="s" s="10">
-        <v>44</v>
+        <v>0.1</v>
+      </c>
+      <c r="DV32" t="n" s="10">
+        <v>0.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s" s="13">
         <v>65</v>
-      </c>
-      <c r="B33" t="s" s="13">
-        <v>66</v>
       </c>
       <c r="C33" t="s" s="10">
         <v>43</v>
@@ -12987,24 +12984,24 @@
         <v>2.0</v>
       </c>
       <c r="DS33" t="n" s="10">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="DT33" t="n" s="10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="DU33" t="n" s="10">
-        <v>-0.5</v>
-      </c>
-      <c r="DV33" t="s" s="10">
-        <v>44</v>
+        <v>0.0</v>
+      </c>
+      <c r="DV33" t="n" s="10">
+        <v>2.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s" s="13">
         <v>67</v>
-      </c>
-      <c r="B34" t="s" s="13">
-        <v>68</v>
       </c>
       <c r="C34" t="s" s="10">
         <v>43</v>
@@ -13367,21 +13364,21 @@
         <v>-1.0</v>
       </c>
       <c r="DS34" t="n" s="10">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="DT34" t="n" s="10">
         <v>-0.9</v>
       </c>
       <c r="DU34" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="DV34" t="s" s="10">
-        <v>44</v>
+        <v>0.1</v>
+      </c>
+      <c r="DV34" t="n" s="10">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="35" ht="33.75" customHeight="true">
       <c r="A35" t="s" s="14">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -13440,7 +13437,7 @@
         <v>1.3</v>
       </c>
       <c r="S36" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="T36" t="n" s="10">
         <v>0.6</v>
@@ -13470,7 +13467,7 @@
         <v>0.5</v>
       </c>
       <c r="AC36" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AD36" t="n" s="10">
         <v>0.7</v>
@@ -13491,7 +13488,7 @@
         <v>1.0</v>
       </c>
       <c r="AJ36" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AK36" t="n" s="10">
         <v>0.9</v>
@@ -13536,16 +13533,16 @@
         <v>-0.2</v>
       </c>
       <c r="AY36" t="n" s="10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AZ36" t="n" s="10">
         <v>0.1</v>
       </c>
       <c r="BA36" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="BB36" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BC36" t="n" s="10">
         <v>-0.5</v>
@@ -13563,13 +13560,13 @@
         <v>-0.2</v>
       </c>
       <c r="BH36" t="n" s="10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="BI36" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BJ36" t="n" s="10">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="BK36" t="n" s="10">
         <v>0.9</v>
@@ -13578,7 +13575,7 @@
         <v>0.9</v>
       </c>
       <c r="BM36" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BN36" t="n" s="10">
         <v>0.4</v>
@@ -13587,46 +13584,46 @@
         <v>0.5</v>
       </c>
       <c r="BP36" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="BQ36" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="BR36" t="n" s="10">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="BS36" t="n" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="BT36" t="n" s="10">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="BU36" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="BV36" t="n" s="10">
-        <v>-0.2</v>
+        <v>0.8</v>
       </c>
       <c r="BW36" t="n" s="10">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="BX36" t="n" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="BY36" t="n" s="10">
         <v>-0.4</v>
       </c>
-      <c r="BY36" t="n" s="10">
-        <v>-0.5</v>
-      </c>
       <c r="BZ36" t="n" s="10">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="CA36" t="n" s="10">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="CB36" t="n" s="10">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="CC36" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="CD36" t="n" s="10">
         <v>0.8</v>
@@ -13650,7 +13647,7 @@
         <v>-0.4</v>
       </c>
       <c r="CK36" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="CL36" t="n" s="10">
         <v>0.5</v>
@@ -13668,10 +13665,10 @@
         <v>-0.2</v>
       </c>
       <c r="CQ36" t="n" s="10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="CR36" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="CS36" t="n" s="10">
         <v>0.0</v>
@@ -13716,66 +13713,66 @@
         <v>0.6</v>
       </c>
       <c r="DG36" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="DH36" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="DI36" t="n" s="10">
         <v>0.8</v>
       </c>
       <c r="DJ36" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="DK36" t="n" s="10">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="DL36" t="n" s="10">
         <v>0.1</v>
       </c>
       <c r="DM36" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="DN36" t="n" s="10">
         <v>-0.2</v>
       </c>
       <c r="DO36" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="DP36" t="n" s="10">
         <v>-7.8</v>
       </c>
       <c r="DQ36" t="n" s="10">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="DR36" t="n" s="10">
+        <v>-0.1</v>
+      </c>
+      <c r="DS36" t="n" s="10">
         <v>-0.5</v>
       </c>
-      <c r="DS36" t="n" s="10">
-        <v>-0.6</v>
-      </c>
       <c r="DT36" t="n" s="10">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="DU36" t="n" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="DV36" t="s" s="10">
-        <v>44</v>
+        <v>2.0</v>
+      </c>
+      <c r="DV36" t="n" s="10">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s" s="13">
         <v>45</v>
-      </c>
-      <c r="B37" t="s" s="13">
-        <v>46</v>
       </c>
       <c r="C37" t="s" s="10">
         <v>43</v>
       </c>
       <c r="D37" t="n" s="10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E37" t="n" s="10">
         <v>0.0</v>
@@ -13793,10 +13790,10 @@
         <v>0.4</v>
       </c>
       <c r="J37" t="n" s="10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K37" t="n" s="10">
-        <v>-1.0</v>
+        <v>-1.1</v>
       </c>
       <c r="L37" t="n" s="10">
         <v>0.3</v>
@@ -13805,7 +13802,7 @@
         <v>0.3</v>
       </c>
       <c r="N37" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="O37" t="n" s="10">
         <v>1.3</v>
@@ -13823,7 +13820,7 @@
         <v>-0.2</v>
       </c>
       <c r="T37" t="n" s="10">
-        <v>1.1</v>
+        <v>1.0</v>
       </c>
       <c r="U37" t="n" s="10">
         <v>0.2</v>
@@ -13886,7 +13883,7 @@
         <v>0.7</v>
       </c>
       <c r="AO37" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AP37" t="n" s="10">
         <v>-0.2</v>
@@ -13907,7 +13904,7 @@
         <v>-0.6</v>
       </c>
       <c r="AV37" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AW37" t="n" s="10">
         <v>0.3</v>
@@ -13937,7 +13934,7 @@
         <v>0.0</v>
       </c>
       <c r="BF37" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BG37" t="n" s="10">
         <v>0.3</v>
@@ -13985,7 +13982,7 @@
         <v>0.2</v>
       </c>
       <c r="BV37" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="BW37" t="n" s="10">
         <v>0.3</v>
@@ -14024,7 +14021,7 @@
         <v>0.3</v>
       </c>
       <c r="CI37" t="n" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="CJ37" t="n" s="10">
         <v>0.1</v>
@@ -14039,7 +14036,7 @@
         <v>0.1</v>
       </c>
       <c r="CN37" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="CO37" t="n" s="10">
         <v>0.2</v>
@@ -14048,7 +14045,7 @@
         <v>-0.1</v>
       </c>
       <c r="CQ37" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="CR37" t="n" s="10">
         <v>0.4</v>
@@ -14087,69 +14084,69 @@
         <v>0.0</v>
       </c>
       <c r="DD37" t="n" s="10">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="DE37" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="DF37" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="DG37" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="DH37" t="n" s="10">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="DI37" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.6</v>
       </c>
       <c r="DJ37" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="DK37" t="n" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="DL37" t="n" s="10">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="DM37" t="n" s="10">
-        <v>0.3</v>
+        <v>-1.1</v>
       </c>
       <c r="DN37" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="DO37" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="DP37" t="n" s="10">
-        <v>-6.4</v>
+        <v>-4.2</v>
       </c>
       <c r="DQ37" t="n" s="10">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="DR37" t="n" s="10">
-        <v>-1.1</v>
+        <v>-0.6</v>
       </c>
       <c r="DS37" t="n" s="10">
-        <v>-1.9</v>
+        <v>-2.5</v>
       </c>
       <c r="DT37" t="n" s="10">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="DU37" t="n" s="10">
-        <v>2.9</v>
-      </c>
-      <c r="DV37" t="s" s="10">
-        <v>44</v>
+        <v>0.1</v>
+      </c>
+      <c r="DV37" t="n" s="10">
+        <v>0.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s" s="13">
         <v>47</v>
-      </c>
-      <c r="B38" t="s" s="13">
-        <v>48</v>
       </c>
       <c r="C38" t="s" s="10">
         <v>43</v>
@@ -14263,7 +14260,7 @@
         <v>0.1</v>
       </c>
       <c r="AN38" t="n" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AO38" t="n" s="10">
         <v>0.0</v>
@@ -14275,7 +14272,7 @@
         <v>0.7</v>
       </c>
       <c r="AR38" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AS38" t="n" s="10">
         <v>-0.1</v>
@@ -14335,7 +14332,7 @@
         <v>0.5</v>
       </c>
       <c r="BL38" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="BM38" t="n" s="10">
         <v>0.1</v>
@@ -14371,7 +14368,7 @@
         <v>0.2</v>
       </c>
       <c r="BX38" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="BY38" t="n" s="10">
         <v>-0.4</v>
@@ -14455,7 +14452,7 @@
         <v>0.6</v>
       </c>
       <c r="CZ38" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="DA38" t="n" s="10">
         <v>0.2</v>
@@ -14467,69 +14464,69 @@
         <v>0.0</v>
       </c>
       <c r="DD38" t="n" s="10">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="DE38" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="DF38" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="DG38" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="DH38" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.6</v>
       </c>
       <c r="DI38" t="n" s="10">
-        <v>0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="DJ38" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="DK38" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="DL38" t="n" s="10">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="DM38" t="n" s="10">
-        <v>0.1</v>
+        <v>-1.3</v>
       </c>
       <c r="DN38" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="DO38" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.9</v>
       </c>
       <c r="DP38" t="n" s="10">
-        <v>-6.5</v>
+        <v>-4.5</v>
       </c>
       <c r="DQ38" t="n" s="10">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="DR38" t="n" s="10">
-        <v>-1.3</v>
+        <v>-0.8</v>
       </c>
       <c r="DS38" t="n" s="10">
-        <v>-1.9</v>
+        <v>-2.5</v>
       </c>
       <c r="DT38" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="DU38" t="n" s="10">
         <v>0.8</v>
       </c>
-      <c r="DU38" t="n" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="DV38" t="s" s="10">
-        <v>44</v>
+      <c r="DV38" t="n" s="10">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="9">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s" s="13">
         <v>49</v>
-      </c>
-      <c r="B39" t="s" s="13">
-        <v>50</v>
       </c>
       <c r="C39" t="s" s="10">
         <v>43</v>
@@ -14883,33 +14880,33 @@
         <v>0.2</v>
       </c>
       <c r="DP39" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="DQ39" t="n" s="10">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="DR39" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="DS39" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="DT39" t="n" s="10">
-        <v>0.6</v>
+        <v>1.0</v>
       </c>
       <c r="DU39" t="n" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="DV39" t="s" s="10">
-        <v>44</v>
+        <v>-0.7</v>
+      </c>
+      <c r="DV39" t="n" s="10">
+        <v>0.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="9">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s" s="13">
         <v>51</v>
-      </c>
-      <c r="B40" t="s" s="13">
-        <v>52</v>
       </c>
       <c r="C40" t="s" s="10">
         <v>43</v>
@@ -14918,7 +14915,7 @@
         <v>0.3</v>
       </c>
       <c r="E40" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="F40" t="n" s="10">
         <v>0.1</v>
@@ -14936,7 +14933,7 @@
         <v>-0.3</v>
       </c>
       <c r="K40" t="n" s="10">
-        <v>-1.0</v>
+        <v>-0.9</v>
       </c>
       <c r="L40" t="n" s="10">
         <v>0.3</v>
@@ -14984,13 +14981,13 @@
         <v>0.1</v>
       </c>
       <c r="AA40" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AB40" t="n" s="10">
         <v>0.3</v>
       </c>
       <c r="AC40" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD40" t="n" s="10">
         <v>0.5</v>
@@ -15044,10 +15041,10 @@
         <v>-0.7</v>
       </c>
       <c r="AU40" t="n" s="10">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AV40" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AW40" t="n" s="10">
         <v>-0.2</v>
@@ -15068,16 +15065,16 @@
         <v>0.4</v>
       </c>
       <c r="BC40" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="BD40" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="BE40" t="n" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="BF40" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="BG40" t="n" s="10">
         <v>-0.4</v>
@@ -15086,10 +15083,10 @@
         <v>0.4</v>
       </c>
       <c r="BI40" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="BJ40" t="n" s="10">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="BK40" t="n" s="10">
         <v>0.3</v>
@@ -15107,55 +15104,55 @@
         <v>1.0</v>
       </c>
       <c r="BP40" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="BQ40" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BR40" t="n" s="10">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="BS40" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BT40" t="n" s="10">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BU40" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="BV40" t="n" s="10">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
       <c r="BW40" t="n" s="10">
-        <v>-2.5</v>
+        <v>-2.7</v>
       </c>
       <c r="BX40" t="n" s="10">
-        <v>-0.4</v>
+        <v>-1.2</v>
       </c>
       <c r="BY40" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="BZ40" t="n" s="10">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="CA40" t="n" s="10">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="CB40" t="n" s="10">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="CC40" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="CD40" t="n" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="CE40" t="n" s="10">
         <v>1.3</v>
       </c>
       <c r="CF40" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="CG40" t="n" s="10">
         <v>0.2</v>
@@ -15197,7 +15194,7 @@
         <v>-0.4</v>
       </c>
       <c r="CT40" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="CU40" t="n" s="10">
         <v>-0.6</v>
@@ -15227,69 +15224,69 @@
         <v>0.7</v>
       </c>
       <c r="DD40" t="n" s="10">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="DE40" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="DF40" t="n" s="10">
         <v>0.3</v>
       </c>
       <c r="DG40" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="DH40" t="n" s="10">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="DI40" t="n" s="10">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="DJ40" t="n" s="10">
         <v>-0.1</v>
       </c>
       <c r="DK40" t="n" s="10">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="DL40" t="n" s="10">
-        <v>0.0</v>
+        <v>-1.5</v>
       </c>
       <c r="DM40" t="n" s="10">
-        <v>0.0</v>
+        <v>1.3</v>
       </c>
       <c r="DN40" t="n" s="10">
         <v>-0.3</v>
       </c>
       <c r="DO40" t="n" s="10">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="DP40" t="n" s="10">
-        <v>-1.3</v>
+        <v>-3.6</v>
       </c>
       <c r="DQ40" t="n" s="10">
-        <v>-0.4</v>
+        <v>1.7</v>
       </c>
       <c r="DR40" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="DS40" t="n" s="10">
-        <v>1.4</v>
+        <v>2.0</v>
       </c>
       <c r="DT40" t="n" s="10">
-        <v>0.4</v>
+        <v>-2.4</v>
       </c>
       <c r="DU40" t="n" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="DV40" t="s" s="10">
-        <v>44</v>
+        <v>1.9</v>
+      </c>
+      <c r="DV40" t="n" s="10">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="9">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s" s="13">
         <v>53</v>
-      </c>
-      <c r="B41" t="s" s="13">
-        <v>54</v>
       </c>
       <c r="C41" t="s" s="10">
         <v>43</v>
@@ -15634,42 +15631,42 @@
         <v>0.1</v>
       </c>
       <c r="DM41" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="DN41" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="DO41" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="DP41" t="n" s="10">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="DQ41" t="n" s="10">
         <v>1.2</v>
       </c>
       <c r="DR41" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="DS41" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="DT41" t="n" s="10">
         <v>0.3</v>
       </c>
       <c r="DU41" t="n" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="DV41" t="s" s="10">
-        <v>44</v>
+        <v>-0.4</v>
+      </c>
+      <c r="DV41" t="n" s="10">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="9">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s" s="13">
         <v>55</v>
-      </c>
-      <c r="B42" t="s" s="13">
-        <v>56</v>
       </c>
       <c r="C42" t="s" s="10">
         <v>43</v>
@@ -15939,7 +15936,7 @@
         <v>-0.2</v>
       </c>
       <c r="CN42" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="CO42" t="n" s="10">
         <v>0.0</v>
@@ -15999,7 +15996,7 @@
         <v>0.1</v>
       </c>
       <c r="DH42" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DI42" t="n" s="10">
         <v>0.0</v>
@@ -16040,16 +16037,16 @@
       <c r="DU42" t="n" s="10">
         <v>-0.2</v>
       </c>
-      <c r="DV42" t="s" s="10">
-        <v>44</v>
+      <c r="DV42" t="n" s="10">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s" s="13">
         <v>57</v>
-      </c>
-      <c r="B43" t="s" s="13">
-        <v>58</v>
       </c>
       <c r="C43" t="s" s="10">
         <v>43</v>
@@ -16406,7 +16403,7 @@
         <v>-0.2</v>
       </c>
       <c r="DQ43" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="DR43" t="n" s="10">
         <v>0.2</v>
@@ -16418,18 +16415,18 @@
         <v>0.3</v>
       </c>
       <c r="DU43" t="n" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="DV43" t="s" s="10">
-        <v>44</v>
+        <v>-0.2</v>
+      </c>
+      <c r="DV43" t="n" s="10">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s" s="13">
         <v>59</v>
-      </c>
-      <c r="B44" t="s" s="13">
-        <v>60</v>
       </c>
       <c r="C44" t="s" s="10">
         <v>43</v>
@@ -16789,7 +16786,7 @@
         <v>0.1</v>
       </c>
       <c r="DR44" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DS44" t="n" s="10">
         <v>-0.1</v>
@@ -16800,16 +16797,16 @@
       <c r="DU44" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="DV44" t="s" s="10">
-        <v>44</v>
+      <c r="DV44" t="n" s="10">
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s" s="13">
         <v>61</v>
-      </c>
-      <c r="B45" t="s" s="13">
-        <v>62</v>
       </c>
       <c r="C45" t="s" s="10">
         <v>43</v>
@@ -16821,7 +16818,7 @@
         <v>-0.6</v>
       </c>
       <c r="F45" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="G45" t="n" s="10">
         <v>0.2</v>
@@ -16845,7 +16842,7 @@
         <v>0.0</v>
       </c>
       <c r="N45" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="O45" t="n" s="10">
         <v>-0.3</v>
@@ -16866,7 +16863,7 @@
         <v>0.0</v>
       </c>
       <c r="U45" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V45" t="n" s="10">
         <v>-0.2</v>
@@ -16878,7 +16875,7 @@
         <v>-0.4</v>
       </c>
       <c r="Y45" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="Z45" t="n" s="10">
         <v>0.1</v>
@@ -16887,7 +16884,7 @@
         <v>0.2</v>
       </c>
       <c r="AB45" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AC45" t="n" s="10">
         <v>0.1</v>
@@ -16914,10 +16911,10 @@
         <v>-0.3</v>
       </c>
       <c r="AK45" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AL45" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AM45" t="n" s="10">
         <v>0.1</v>
@@ -16986,19 +16983,19 @@
         <v>0.2</v>
       </c>
       <c r="BI45" t="n" s="10">
+        <v>-0.3</v>
+      </c>
+      <c r="BJ45" t="n" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="BK45" t="n" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="BL45" t="n" s="10">
         <v>-0.4</v>
       </c>
-      <c r="BJ45" t="n" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="BK45" t="n" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="BL45" t="n" s="10">
-        <v>-0.5</v>
-      </c>
       <c r="BM45" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="BN45" t="n" s="10">
         <v>-0.5</v>
@@ -17007,46 +17004,46 @@
         <v>1.0</v>
       </c>
       <c r="BP45" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="BQ45" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="BR45" t="n" s="10">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="BS45" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.2</v>
       </c>
       <c r="BT45" t="n" s="10">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="BU45" t="n" s="10">
+        <v>-0.5</v>
+      </c>
+      <c r="BV45" t="n" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="BW45" t="n" s="10">
+        <v>-1.3</v>
+      </c>
+      <c r="BX45" t="n" s="10">
+        <v>-0.9</v>
+      </c>
+      <c r="BY45" t="n" s="10">
+        <v>-0.1</v>
+      </c>
+      <c r="BZ45" t="n" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="CA45" t="n" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="CB45" t="n" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="CC45" t="n" s="10">
         <v>-0.4</v>
-      </c>
-      <c r="BV45" t="n" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="BW45" t="n" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="BX45" t="n" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="BY45" t="n" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="BZ45" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="CA45" t="n" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="CB45" t="n" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="CC45" t="n" s="10">
-        <v>-0.5</v>
       </c>
       <c r="CD45" t="n" s="10">
         <v>0.3</v>
@@ -17079,7 +17076,7 @@
         <v>0.4</v>
       </c>
       <c r="CN45" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="CO45" t="n" s="10">
         <v>0.4</v>
@@ -17088,7 +17085,7 @@
         <v>-0.4</v>
       </c>
       <c r="CQ45" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="CR45" t="n" s="10">
         <v>0.1</v>
@@ -17097,13 +17094,13 @@
         <v>-0.4</v>
       </c>
       <c r="CT45" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="CU45" t="n" s="10">
         <v>-0.5</v>
       </c>
       <c r="CV45" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="CW45" t="n" s="10">
         <v>0.1</v>
@@ -17127,75 +17124,75 @@
         <v>0.5</v>
       </c>
       <c r="DD45" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="DE45" t="n" s="10">
+        <v>-0.1</v>
+      </c>
+      <c r="DF45" t="n" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="DG45" t="n" s="10">
         <v>-0.3</v>
       </c>
-      <c r="DF45" t="n" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="DG45" t="n" s="10">
-        <v>-0.5</v>
-      </c>
       <c r="DH45" t="n" s="10">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="DI45" t="n" s="10">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="DJ45" t="n" s="10">
         <v>-0.3</v>
       </c>
       <c r="DK45" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="DL45" t="n" s="10">
-        <v>-0.1</v>
+        <v>-1.5</v>
       </c>
       <c r="DM45" t="n" s="10">
-        <v>0.0</v>
+        <v>1.2</v>
       </c>
       <c r="DN45" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="DO45" t="n" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="DP45" t="n" s="10">
+        <v>-2.2</v>
+      </c>
+      <c r="DQ45" t="n" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="DR45" t="n" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="DS45" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="DT45" t="n" s="10">
+        <v>-2.7</v>
+      </c>
+      <c r="DU45" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="DV45" t="n" s="10">
         <v>-0.3</v>
-      </c>
-      <c r="DP45" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="DQ45" t="n" s="10">
-        <v>-1.6</v>
-      </c>
-      <c r="DR45" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="DS45" t="n" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="DT45" t="n" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="DU45" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="DV45" t="s" s="10">
-        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="9">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s" s="13">
         <v>63</v>
-      </c>
-      <c r="B46" t="s" s="13">
-        <v>64</v>
       </c>
       <c r="C46" t="s" s="10">
         <v>43</v>
       </c>
       <c r="D46" t="n" s="10">
-        <v>-1.1</v>
+        <v>-1.0</v>
       </c>
       <c r="E46" t="n" s="10">
         <v>0.2</v>
@@ -17204,7 +17201,7 @@
         <v>0.7</v>
       </c>
       <c r="G46" t="n" s="10">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="H46" t="n" s="10">
         <v>0.3</v>
@@ -17225,7 +17222,7 @@
         <v>-0.1</v>
       </c>
       <c r="N46" t="n" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O46" t="n" s="10">
         <v>-0.3</v>
@@ -17237,13 +17234,13 @@
         <v>-0.3</v>
       </c>
       <c r="R46" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="S46" t="n" s="10">
         <v>0.1</v>
       </c>
       <c r="T46" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="U46" t="n" s="10">
         <v>0.1</v>
@@ -17264,10 +17261,10 @@
         <v>0.2</v>
       </c>
       <c r="AA46" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB46" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC46" t="n" s="10">
         <v>0.4</v>
@@ -17279,7 +17276,7 @@
         <v>-0.1</v>
       </c>
       <c r="AF46" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AG46" t="n" s="10">
         <v>-0.5</v>
@@ -17303,7 +17300,7 @@
         <v>0.3</v>
       </c>
       <c r="AN46" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AO46" t="n" s="10">
         <v>-0.1</v>
@@ -17318,16 +17315,16 @@
         <v>0.3</v>
       </c>
       <c r="AS46" t="n" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="AT46" t="n" s="10">
         <v>0.7</v>
-      </c>
-      <c r="AT46" t="n" s="10">
-        <v>0.6</v>
       </c>
       <c r="AU46" t="n" s="10">
         <v>1.0</v>
       </c>
       <c r="AV46" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AW46" t="n" s="10">
         <v>0.1</v>
@@ -17348,34 +17345,34 @@
         <v>0.2</v>
       </c>
       <c r="BC46" t="n" s="10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="BD46" t="n" s="10">
         <v>0.7</v>
       </c>
       <c r="BE46" t="n" s="10">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="BF46" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BG46" t="n" s="10">
         <v>0.7</v>
       </c>
       <c r="BH46" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="BI46" t="n" s="10">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="BJ46" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="BK46" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="BL46" t="n" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="BM46" t="n" s="10">
         <v>0.6</v>
@@ -17390,43 +17387,43 @@
         <v>0.2</v>
       </c>
       <c r="BQ46" t="n" s="10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BR46" t="n" s="10">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="BS46" t="n" s="10">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="BT46" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="BU46" t="n" s="10">
         <v>-0.5</v>
       </c>
       <c r="BV46" t="n" s="10">
-        <v>-1.1</v>
+        <v>-1.7</v>
       </c>
       <c r="BW46" t="n" s="10">
-        <v>-2.4</v>
+        <v>-1.8</v>
       </c>
       <c r="BX46" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BY46" t="n" s="10">
         <v>0.6</v>
       </c>
       <c r="BZ46" t="n" s="10">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="CA46" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="CB46" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="CC46" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="CD46" t="n" s="10">
         <v>0.2</v>
@@ -17447,7 +17444,7 @@
         <v>0.7</v>
       </c>
       <c r="CJ46" t="n" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="CK46" t="n" s="10">
         <v>0.2</v>
@@ -17456,13 +17453,13 @@
         <v>-0.5</v>
       </c>
       <c r="CM46" t="n" s="10">
+        <v>-0.4</v>
+      </c>
+      <c r="CN46" t="n" s="10">
+        <v>-0.1</v>
+      </c>
+      <c r="CO46" t="n" s="10">
         <v>-0.3</v>
-      </c>
-      <c r="CN46" t="n" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="CO46" t="n" s="10">
-        <v>-0.2</v>
       </c>
       <c r="CP46" t="n" s="10">
         <v>0.6</v>
@@ -17480,7 +17477,7 @@
         <v>0.1</v>
       </c>
       <c r="CU46" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="CV46" t="n" s="10">
         <v>0.1</v>
@@ -17495,10 +17492,10 @@
         <v>-0.5</v>
       </c>
       <c r="CZ46" t="n" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="DA46" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="DB46" t="n" s="10">
         <v>-0.2</v>
@@ -17516,60 +17513,60 @@
         <v>0.2</v>
       </c>
       <c r="DG46" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="DH46" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DI46" t="n" s="10">
         <v>-1.1</v>
       </c>
       <c r="DJ46" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="DK46" t="n" s="10">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="DL46" t="n" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="DM46" t="n" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="DN46" t="n" s="10">
+        <v>-0.5</v>
+      </c>
+      <c r="DO46" t="n" s="10">
+        <v>-0.4</v>
+      </c>
+      <c r="DP46" t="n" s="10">
+        <v>-2.1</v>
+      </c>
+      <c r="DQ46" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="DR46" t="n" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="DS46" t="n" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="DT46" t="n" s="10">
+        <v>-0.1</v>
+      </c>
+      <c r="DU46" t="n" s="10">
+        <v>-0.7</v>
+      </c>
+      <c r="DV46" t="n" s="10">
         <v>-0.3</v>
-      </c>
-      <c r="DM46" t="n" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="DN46" t="n" s="10">
-        <v>-0.6</v>
-      </c>
-      <c r="DO46" t="n" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="DP46" t="n" s="10">
-        <v>-2.0</v>
-      </c>
-      <c r="DQ46" t="n" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="DR46" t="n" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="DS46" t="n" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="DT46" t="n" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="DU46" t="n" s="10">
-        <v>-1.3</v>
-      </c>
-      <c r="DV46" t="s" s="10">
-        <v>44</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s" s="13">
         <v>65</v>
-      </c>
-      <c r="B47" t="s" s="13">
-        <v>66</v>
       </c>
       <c r="C47" t="s" s="10">
         <v>43</v>
@@ -17620,7 +17617,7 @@
         <v>0.5</v>
       </c>
       <c r="S47" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="T47" t="n" s="10">
         <v>0.5</v>
@@ -17839,7 +17836,7 @@
         <v>0.0</v>
       </c>
       <c r="CN47" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="CO47" t="n" s="10">
         <v>0.4</v>
@@ -17896,7 +17893,7 @@
         <v>0.7</v>
       </c>
       <c r="DG47" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="DH47" t="n" s="10">
         <v>0.4</v>
@@ -17905,10 +17902,10 @@
         <v>-0.4</v>
       </c>
       <c r="DJ47" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DK47" t="n" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="DL47" t="n" s="10">
         <v>-0.1</v>
@@ -17917,45 +17914,45 @@
         <v>0.6</v>
       </c>
       <c r="DN47" t="n" s="10">
-        <v>-1.0</v>
+        <v>-0.9</v>
       </c>
       <c r="DO47" t="n" s="10">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="DP47" t="n" s="10">
-        <v>-8.4</v>
+        <v>-8.5</v>
       </c>
       <c r="DQ47" t="n" s="10">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="DR47" t="n" s="10">
         <v>0.8</v>
       </c>
       <c r="DS47" t="n" s="10">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="DT47" t="n" s="10">
-        <v>1.0</v>
+        <v>1.1</v>
       </c>
       <c r="DU47" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="DV47" t="s" s="10">
-        <v>44</v>
+        <v>0.6</v>
+      </c>
+      <c r="DV47" t="n" s="10">
+        <v>0.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s" s="13">
         <v>67</v>
-      </c>
-      <c r="B48" t="s" s="13">
-        <v>68</v>
       </c>
       <c r="C48" t="s" s="10">
         <v>43</v>
       </c>
       <c r="D48" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="10">
         <v>-0.1</v>
@@ -17964,10 +17961,10 @@
         <v>0.1</v>
       </c>
       <c r="G48" t="n" s="10">
-        <v>-1.0</v>
+        <v>-0.9</v>
       </c>
       <c r="H48" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I48" t="n" s="10">
         <v>0.4</v>
@@ -17979,7 +17976,7 @@
         <v>1.3</v>
       </c>
       <c r="L48" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M48" t="n" s="10">
         <v>-0.1</v>
@@ -17988,7 +17985,7 @@
         <v>0.2</v>
       </c>
       <c r="O48" t="n" s="10">
-        <v>-1.0</v>
+        <v>-1.1</v>
       </c>
       <c r="P48" t="n" s="10">
         <v>-0.6</v>
@@ -18000,7 +17997,7 @@
         <v>-0.6</v>
       </c>
       <c r="S48" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="T48" t="n" s="10">
         <v>-0.5</v>
@@ -18030,7 +18027,7 @@
         <v>-0.2</v>
       </c>
       <c r="AC48" t="n" s="10">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD48" t="n" s="10">
         <v>-0.6</v>
@@ -18042,7 +18039,7 @@
         <v>-0.7</v>
       </c>
       <c r="AG48" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AH48" t="n" s="10">
         <v>-0.4</v>
@@ -18051,19 +18048,19 @@
         <v>-0.7</v>
       </c>
       <c r="AJ48" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AK48" t="n" s="10">
         <v>-0.7</v>
       </c>
       <c r="AL48" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AM48" t="n" s="10">
         <v>-1.1</v>
       </c>
       <c r="AN48" t="n" s="10">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AO48" t="n" s="10">
         <v>-0.9</v>
@@ -18078,13 +18075,13 @@
         <v>0.3</v>
       </c>
       <c r="AS48" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT48" t="n" s="10">
         <v>0.8</v>
       </c>
       <c r="AU48" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AV48" t="n" s="10">
         <v>-0.4</v>
@@ -18114,31 +18111,31 @@
         <v>-0.6</v>
       </c>
       <c r="BE48" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="BF48" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="BG48" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="BH48" t="n" s="10">
         <v>-1.1</v>
       </c>
       <c r="BI48" t="n" s="10">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="BJ48" t="n" s="10">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="BK48" t="n" s="10">
         <v>-1.1</v>
       </c>
       <c r="BL48" t="n" s="10">
+        <v>-0.7</v>
+      </c>
+      <c r="BM48" t="n" s="10">
         <v>-0.6</v>
-      </c>
-      <c r="BM48" t="n" s="10">
-        <v>-0.5</v>
       </c>
       <c r="BN48" t="n" s="10">
         <v>-1.1</v>
@@ -18153,34 +18150,34 @@
         <v>-0.3</v>
       </c>
       <c r="BR48" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.4</v>
       </c>
       <c r="BS48" t="n" s="10">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="BT48" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="BU48" t="n" s="10">
         <v>0.3</v>
       </c>
       <c r="BV48" t="n" s="10">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BW48" t="n" s="10">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="BX48" t="n" s="10">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="BY48" t="n" s="10">
         <v>-0.6</v>
       </c>
       <c r="BZ48" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.9</v>
       </c>
       <c r="CA48" t="n" s="10">
-        <v>-1.9</v>
+        <v>-1.6</v>
       </c>
       <c r="CB48" t="n" s="10">
         <v>-2.0</v>
@@ -18204,10 +18201,10 @@
         <v>-0.1</v>
       </c>
       <c r="CI48" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="CJ48" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="CK48" t="n" s="10">
         <v>-0.1</v>
@@ -18255,7 +18252,7 @@
         <v>-0.5</v>
       </c>
       <c r="CZ48" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="DA48" t="n" s="10">
         <v>-0.4</v>
@@ -18270,16 +18267,16 @@
         <v>-0.8</v>
       </c>
       <c r="DE48" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="DF48" t="n" s="10">
         <v>-0.5</v>
       </c>
       <c r="DG48" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="DH48" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="DI48" t="n" s="10">
         <v>-0.7</v>
@@ -18288,50 +18285,50 @@
         <v>-0.1</v>
       </c>
       <c r="DK48" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="DL48" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="DM48" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="DN48" t="n" s="10">
         <v>0.4</v>
       </c>
       <c r="DO48" t="n" s="10">
-        <v>1.1</v>
+        <v>1.0</v>
       </c>
       <c r="DP48" t="n" s="10">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="DQ48" t="n" s="10">
-        <v>-4.8</v>
+        <v>-4.6</v>
       </c>
       <c r="DR48" t="n" s="10">
         <v>-0.3</v>
       </c>
       <c r="DS48" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="DT48" t="n" s="10">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="DU48" t="n" s="10">
-        <v>-1.5</v>
-      </c>
-      <c r="DV48" t="s" s="10">
-        <v>44</v>
+        <v>-1.4</v>
+      </c>
+      <c r="DV48" t="n" s="10">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="12">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -18378,7 +18375,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:52:25&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:21:23&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>